--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -266,6 +266,63 @@
   <si>
     <t>012896001439451</t>
   </si>
+  <si>
+    <t>Thiết bị lỗi module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>Xử lý phần anten GPS</t>
+  </si>
+  <si>
+    <t>Thiết bị chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Lock: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp, lỗi IC nguồn 4v4</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị, nâng cấp FW</t>
+  </si>
 </sst>
 </file>
 
@@ -461,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -637,22 +694,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,8 +721,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1099,58 +1159,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1175,23 +1235,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,19 +1273,37 @@
         <v>62</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1252,19 +1330,35 @@
         <v>62</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>77</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="O7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1289,19 +1383,33 @@
         <v>62</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>86</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="N8" s="52"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1326,19 +1434,33 @@
         <v>62</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="73"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1363,19 +1485,33 @@
         <v>62</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1400,19 +1536,35 @@
         <v>62</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="I11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="N11" s="42"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="O11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1437,19 +1589,35 @@
         <v>62</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1476,19 +1644,37 @@
         <v>63</v>
       </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="M13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="52">
+        <v>10000</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1517,7 +1703,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1732,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1761,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1694,7 +1880,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -1726,7 +1912,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -1758,7 +1944,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -1907,7 +2093,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -1939,7 +2125,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -1971,7 +2157,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -2163,7 +2349,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2195,7 +2381,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -2227,7 +2413,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2580,7 +2766,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -2806,6 +2992,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2817,13 +3010,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2867,43 +3053,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2948,58 +3134,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3024,23 +3210,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3076,7 +3262,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3107,7 +3293,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3136,7 +3322,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3165,7 +3351,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3194,7 +3380,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3223,7 +3409,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3252,7 +3438,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3283,7 +3469,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3312,7 +3498,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3341,7 +3527,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3370,7 +3556,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4601,13 +4787,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4619,6 +4798,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4662,43 +4848,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4743,58 +4929,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4819,23 +5005,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,7 +5055,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4908,7 +5094,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4945,7 +5131,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4982,7 +5168,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5019,7 +5205,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5048,7 +5234,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5077,7 +5263,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5108,7 +5294,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5137,7 +5323,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5166,7 +5352,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5195,7 +5381,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6426,13 +6612,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6444,6 +6623,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6487,43 +6673,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6568,58 +6754,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -6644,23 +6830,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6694,7 +6880,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6725,7 +6911,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6754,7 +6940,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6783,7 +6969,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6812,7 +6998,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -6841,7 +7027,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -6870,7 +7056,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -6901,7 +7087,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -6930,7 +7116,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -6959,7 +7145,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -6988,7 +7174,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8219,13 +8405,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8237,6 +8416,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8280,43 +8466,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8361,58 +8547,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8437,23 +8623,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8489,7 +8675,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8520,7 +8706,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8549,7 +8735,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8578,7 +8764,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8607,7 +8793,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8636,7 +8822,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8665,7 +8851,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8696,7 +8882,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8725,7 +8911,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8754,7 +8940,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8783,7 +8969,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10014,13 +10200,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10032,6 +10211,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10075,43 +10261,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10156,58 +10342,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10232,23 +10418,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10282,7 +10468,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10321,7 +10507,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10358,7 +10544,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10375,7 +10561,7 @@
       <c r="D9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="59" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="38"/>
@@ -10395,7 +10581,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10412,7 +10598,7 @@
       <c r="D10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="59" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="38"/>
@@ -10432,7 +10618,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10461,7 +10647,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10490,7 +10676,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10521,7 +10707,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10550,7 +10736,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10579,7 +10765,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10608,7 +10794,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11839,13 +12025,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -11857,6 +12036,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11900,43 +12086,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="68"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -11981,58 +12167,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="70" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="70" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -12057,23 +12243,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="63"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12099,7 +12285,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12130,7 +12316,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12159,7 +12345,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12188,7 +12374,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12217,7 +12403,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12246,7 +12432,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12275,7 +12461,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12306,7 +12492,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12335,7 +12521,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12364,7 +12550,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12393,7 +12579,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13624,13 +13810,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13642,6 +13821,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -323,6 +323,93 @@
   <si>
     <t>Test lại thiết bị, nâng cấp FW</t>
   </si>
+  <si>
+    <t>Imei mới: 868183033786448</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Lcok: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.085.066,09008</t>
+  </si>
+  <si>
+    <t>027.000.012.023,09004</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thiết bị cập nhật sại thời gian</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00041.250815</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ lỗi</t>
+  </si>
+  <si>
+    <t>Thẻ nhớ</t>
+  </si>
+  <si>
+    <t>Thiết bị oxi hóa chân nguồn</t>
+  </si>
+  <si>
+    <t>Kiểm tra dịch vụ server</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý phần nguồn</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liện tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại khối nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Không nhận bảo hành</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -697,7 +784,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,24 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1159,58 +1243,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1319,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1387,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1358,7 +1442,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1397,7 +1481,9 @@
         <v>90</v>
       </c>
       <c r="N8" s="52"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>76</v>
       </c>
@@ -1409,7 +1495,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1433,14 +1519,18 @@
       <c r="G9" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="I9" s="40" t="s">
         <v>78</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="73"/>
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
         <v>74</v>
@@ -1460,7 +1550,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1589,9 @@
         <v>80</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
+      <c r="O10" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>76</v>
       </c>
@@ -1511,7 +1603,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1564,7 +1656,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1617,7 +1709,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1674,7 +1766,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1703,7 +1795,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1732,7 +1824,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1761,7 +1853,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2992,13 +3084,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3010,6 +3095,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3020,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3053,43 +3145,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3134,58 +3226,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3210,23 +3302,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3254,15 +3346,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="54"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3283,7 +3385,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
       <c r="N7" s="42"/>
@@ -3293,7 +3395,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3312,7 +3414,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="52"/>
@@ -3322,7 +3424,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3351,7 +3453,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3380,7 +3482,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3409,7 +3511,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3438,7 +3540,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3469,7 +3571,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3498,7 +3600,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3527,7 +3629,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3556,7 +3658,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3707,7 +3809,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -4016,7 +4118,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -4208,7 +4310,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4326,7 +4428,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -4787,6 +4889,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4798,13 +4907,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4815,8 +4917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4848,43 +4950,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -4929,58 +5031,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -5005,23 +5107,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,19 +5145,39 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5082,19 +5204,39 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="I7" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="40" t="s">
+        <v>96</v>
+      </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5119,19 +5261,35 @@
         <v>63</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
+      <c r="M8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="52">
+        <v>385000</v>
+      </c>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5156,19 +5314,39 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="4"/>
+      <c r="I9" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5193,19 +5371,39 @@
         <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="4"/>
+      <c r="I10" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5234,7 +5432,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5263,7 +5461,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5294,7 +5492,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5323,7 +5521,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5352,7 +5550,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5381,7 +5579,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5532,7 +5730,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -5564,7 +5762,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -5745,7 +5943,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -5841,7 +6039,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -5969,7 +6167,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -6033,7 +6231,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -6612,6 +6810,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6623,13 +6828,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6641,7 +6839,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6673,43 +6871,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6754,58 +6952,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -6830,23 +7028,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6868,19 +7066,37 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
+      <c r="I6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="42">
+        <v>63000</v>
+      </c>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -6901,7 +7117,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
       <c r="N7" s="42"/>
@@ -6911,7 +7127,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -6930,7 +7146,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="52"/>
@@ -6940,7 +7156,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6969,7 +7185,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6998,7 +7214,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7027,7 +7243,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7056,7 +7272,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7087,7 +7303,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7116,7 +7332,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7145,7 +7361,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7174,7 +7390,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -7357,7 +7573,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -7570,7 +7786,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -7762,7 +7978,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -7826,7 +8042,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -8405,6 +8621,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8416,13 +8639,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8433,8 +8649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8466,43 +8682,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8547,58 +8763,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8623,23 +8839,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8667,15 +8883,25 @@
       <c r="J6" s="1"/>
       <c r="K6" s="54"/>
       <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8696,7 +8922,7 @@
       <c r="H7" s="38"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
       <c r="N7" s="42"/>
@@ -8706,7 +8932,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8725,7 +8951,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="52"/>
@@ -8735,7 +8961,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8990,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -8793,7 +9019,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8822,7 +9048,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8851,7 +9077,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -8882,7 +9108,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8911,7 +9137,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8940,7 +9166,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8969,7 +9195,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9120,7 +9346,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -9429,7 +9655,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -9621,7 +9847,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -9739,7 +9965,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -10200,6 +10426,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10211,13 +10444,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10228,8 +10454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10261,43 +10487,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10342,58 +10568,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10418,23 +10644,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10451,24 +10677,44 @@
       <c r="E6" s="39">
         <v>867330022305828</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>108</v>
+      </c>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="H6" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10494,20 +10740,36 @@
       <c r="G7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
+      <c r="H7" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="N7" s="42"/>
       <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10531,20 +10793,36 @@
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="H8" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>104</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="N8" s="52"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10569,19 +10847,35 @@
         <v>63</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
+      <c r="I9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>105</v>
+      </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="1"/>
+      <c r="L9" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N9" s="52">
+        <v>385000</v>
+      </c>
       <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10606,19 +10900,35 @@
         <v>63</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="54" t="s">
+        <v>106</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="52">
+        <v>385000</v>
+      </c>
       <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10647,7 +10957,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10676,7 +10986,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -10707,7 +11017,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -10736,7 +11046,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -10765,7 +11075,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -10794,7 +11104,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10913,7 +11223,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -10945,7 +11255,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -10977,7 +11287,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -11158,7 +11468,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -11190,7 +11500,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -11286,7 +11596,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -11382,7 +11692,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -11446,7 +11756,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -12025,6 +12335,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12036,13 +12353,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12086,43 +12396,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12167,58 +12477,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -12243,23 +12553,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12285,7 +12595,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12316,7 +12626,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12345,7 +12655,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12374,7 +12684,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12403,7 +12713,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12432,7 +12742,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12461,7 +12771,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12492,7 +12802,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12521,7 +12831,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12550,7 +12860,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12579,7 +12889,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -13810,6 +14120,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13821,13 +14138,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -351,9 +351,6 @@
     <t>VI.2.00.---21.200630</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>Lock: 112.213.085.066,09008</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>Báo giá khách không sửa chữa</t>
   </si>
 </sst>
 </file>
@@ -784,22 +784,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +806,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1129,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,43 +1162,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1243,58 +1243,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
@@ -1319,23 +1319,23 @@
       <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="55" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,9 @@
       <c r="B6" s="37">
         <v>44337</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>44</v>
       </c>
@@ -1387,7 +1389,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1402,7 +1404,9 @@
       <c r="B7" s="37">
         <v>44337</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44343</v>
+      </c>
       <c r="D7" s="39" t="s">
         <v>44</v>
       </c>
@@ -1442,7 +1446,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1455,7 +1459,9 @@
       <c r="B8" s="37">
         <v>44337</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44343</v>
+      </c>
       <c r="D8" s="39" t="s">
         <v>44</v>
       </c>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1514,9 @@
       <c r="B9" s="37">
         <v>44337</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44343</v>
+      </c>
       <c r="D9" s="39" t="s">
         <v>44</v>
       </c>
@@ -1550,7 +1558,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1563,7 +1571,9 @@
       <c r="B10" s="37">
         <v>44337</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44343</v>
+      </c>
       <c r="D10" s="39" t="s">
         <v>44</v>
       </c>
@@ -1603,7 +1613,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1616,7 +1626,9 @@
       <c r="B11" s="37">
         <v>44337</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="37">
+        <v>44343</v>
+      </c>
       <c r="D11" s="39" t="s">
         <v>44</v>
       </c>
@@ -1656,7 +1668,7 @@
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1669,7 +1681,9 @@
       <c r="B12" s="37">
         <v>44337</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="37">
+        <v>44343</v>
+      </c>
       <c r="D12" s="39" t="s">
         <v>44</v>
       </c>
@@ -1709,7 +1723,7 @@
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1724,7 +1738,9 @@
       <c r="B13" s="37">
         <v>44337</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="37">
+        <v>44343</v>
+      </c>
       <c r="D13" s="39" t="s">
         <v>44</v>
       </c>
@@ -1766,7 +1782,7 @@
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1811,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1824,7 +1840,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1869,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3084,6 +3100,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3095,13 +3118,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3112,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3145,43 +3161,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3226,58 +3242,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3302,23 +3318,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3344,9 @@
       <c r="B6" s="37">
         <v>44337</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>65</v>
       </c>
@@ -3347,11 +3365,11 @@
       <c r="K6" s="54"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
@@ -3364,7 +3382,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3395,7 +3413,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3424,7 +3442,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3453,7 +3471,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3482,7 +3500,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3529,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3540,7 +3558,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3571,7 +3589,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3600,7 +3618,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3629,7 +3647,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3658,7 +3676,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4889,13 +4907,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4907,6 +4918,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4918,7 +4936,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4950,43 +4968,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5031,58 +5049,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -5107,23 +5125,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,7 +5151,9 @@
       <c r="B6" s="37">
         <v>44337</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>67</v>
       </c>
@@ -5177,7 +5197,7 @@
         <v>98</v>
       </c>
       <c r="T6" s="57"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -5192,7 +5212,9 @@
       <c r="B7" s="37">
         <v>44337</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44343</v>
+      </c>
       <c r="D7" s="39" t="s">
         <v>67</v>
       </c>
@@ -5236,7 +5258,7 @@
         <v>98</v>
       </c>
       <c r="T7" s="57"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -5249,7 +5271,9 @@
       <c r="B8" s="37">
         <v>44337</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44343</v>
+      </c>
       <c r="D8" s="39" t="s">
         <v>67</v>
       </c>
@@ -5272,12 +5296,12 @@
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="52">
-        <v>385000</v>
-      </c>
-      <c r="O8" s="40"/>
+        <v>120</v>
+      </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>76</v>
       </c>
@@ -5289,7 +5313,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5302,7 +5326,9 @@
       <c r="B9" s="37">
         <v>44337</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44343</v>
+      </c>
       <c r="D9" s="39" t="s">
         <v>67</v>
       </c>
@@ -5346,7 +5372,7 @@
         <v>98</v>
       </c>
       <c r="T9" s="57"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5359,7 +5385,9 @@
       <c r="B10" s="37">
         <v>44337</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44343</v>
+      </c>
       <c r="D10" s="39" t="s">
         <v>67</v>
       </c>
@@ -5372,7 +5400,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>95</v>
@@ -5403,7 +5431,7 @@
         <v>98</v>
       </c>
       <c r="T10" s="57"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5432,7 +5460,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5461,7 +5489,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5492,7 +5520,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5521,7 +5549,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5550,7 +5578,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5579,7 +5607,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6349,7 +6377,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -6810,13 +6838,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6828,6 +6849,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6838,8 +6866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6871,43 +6899,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6952,58 +6980,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7028,23 +7056,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7054,7 +7082,9 @@
       <c r="B6" s="37">
         <v>44337</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>68</v>
       </c>
@@ -7073,18 +7103,20 @@
         <v>83</v>
       </c>
       <c r="K6" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="40" t="s">
         <v>116</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="N6" s="42">
         <v>63000</v>
       </c>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -7096,7 +7128,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -7127,7 +7159,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7156,7 +7188,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7185,7 +7217,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -7214,7 +7246,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7243,7 +7275,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7272,7 +7304,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -7303,7 +7335,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7332,7 +7364,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7361,7 +7393,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7390,7 +7422,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8621,13 +8653,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8639,6 +8664,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8649,8 +8681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8682,43 +8714,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8763,58 +8795,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -8839,23 +8871,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8865,7 +8897,9 @@
       <c r="B6" s="37">
         <v>44337</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>69</v>
       </c>
@@ -8884,11 +8918,11 @@
       <c r="K6" s="54"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N6" s="42"/>
       <c r="O6" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
@@ -8901,7 +8935,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -8932,7 +8966,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -8961,7 +8995,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -8990,7 +9024,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -9019,7 +9053,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -9048,7 +9082,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -9077,7 +9111,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -9108,7 +9142,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -9137,7 +9171,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -9166,7 +9200,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -9195,7 +9229,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -10426,13 +10460,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10444,6 +10471,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10455,7 +10489,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10487,43 +10521,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10568,58 +10602,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10644,23 +10678,23 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10670,7 +10704,9 @@
       <c r="B6" s="37">
         <v>44337</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
       <c r="D6" s="39" t="s">
         <v>70</v>
       </c>
@@ -10678,31 +10714,33 @@
         <v>867330022305828</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
+      <c r="O6" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="P6" s="40" t="s">
         <v>76</v>
       </c>
@@ -10714,7 +10752,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -10729,7 +10767,9 @@
       <c r="B7" s="37">
         <v>44337</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37">
+        <v>44343</v>
+      </c>
       <c r="D7" s="39" t="s">
         <v>70</v>
       </c>
@@ -10741,23 +10781,25 @@
         <v>63</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
+      <c r="O7" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="P7" s="40" t="s">
         <v>76</v>
       </c>
@@ -10769,7 +10811,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10782,7 +10824,9 @@
       <c r="B8" s="37">
         <v>44337</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="37">
+        <v>44343</v>
+      </c>
       <c r="D8" s="39" t="s">
         <v>70</v>
       </c>
@@ -10793,24 +10837,24 @@
       <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>111</v>
-      </c>
       <c r="K8" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N8" s="52"/>
-      <c r="O8" s="40"/>
+      <c r="O8" s="40" t="s">
+        <v>75</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>76</v>
       </c>
@@ -10822,7 +10866,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10835,7 +10879,9 @@
       <c r="B9" s="37">
         <v>44337</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="37">
+        <v>44343</v>
+      </c>
       <c r="D9" s="39" t="s">
         <v>70</v>
       </c>
@@ -10848,22 +10894,22 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="40"/>
       <c r="L9" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="52">
-        <v>385000</v>
-      </c>
-      <c r="O9" s="40"/>
+        <v>120</v>
+      </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>76</v>
       </c>
@@ -10875,7 +10921,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -10888,7 +10934,9 @@
       <c r="B10" s="37">
         <v>44337</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="37">
+        <v>44343</v>
+      </c>
       <c r="D10" s="39" t="s">
         <v>70</v>
       </c>
@@ -10901,22 +10949,22 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="54" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="54" t="s">
-        <v>106</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="52">
-        <v>385000</v>
-      </c>
-      <c r="O10" s="40"/>
+        <v>120</v>
+      </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>76</v>
       </c>
@@ -10928,7 +10976,7 @@
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10957,7 +11005,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -10986,7 +11034,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -11017,7 +11065,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11046,7 +11094,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11075,7 +11123,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11104,7 +11152,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11874,7 +11922,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -12335,13 +12383,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12353,6 +12394,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12396,43 +12444,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12477,58 +12525,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -12553,23 +12601,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="64"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12595,7 +12643,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -12626,7 +12674,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="61"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -12655,7 +12703,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="61"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -12684,7 +12732,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="61"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -12713,7 +12761,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="61"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -12742,7 +12790,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="61"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -12771,7 +12819,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="60" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -12802,7 +12850,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="61"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -12831,7 +12879,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="61"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -12860,7 +12908,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="61"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -12889,7 +12937,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="62"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14120,13 +14168,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14138,6 +14179,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang5/02.XuLyBH/XLBH2105_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -605,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -727,9 +727,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,9 +760,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,7 +778,22 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -806,21 +815,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1129,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:N13"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1162,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1243,100 +1237,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1359,22 +1353,22 @@
         <v>62</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="54" t="s">
+      <c r="L6" s="52" t="s">
         <v>77</v>
       </c>
       <c r="M6" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>75</v>
       </c>
@@ -1388,14 +1382,14 @@
         <v>24</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="54"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="56"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1418,20 +1412,20 @@
         <v>62</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="52" t="s">
         <v>77</v>
       </c>
       <c r="L7" s="40"/>
       <c r="M7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>75</v>
       </c>
@@ -1445,12 +1439,12 @@
         <v>31</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="56"/>
+      <c r="W7" s="54"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1479,14 +1473,14 @@
       <c r="J8" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="54" t="s">
+      <c r="K8" s="52" t="s">
         <v>86</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="40" t="s">
         <v>75</v>
       </c>
@@ -1500,12 +1494,12 @@
         <v>89</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="56"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1557,12 +1551,12 @@
         <v>35</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="56"/>
+      <c r="W9" s="54"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1612,12 +1606,12 @@
         <v>25</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="56"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1640,20 +1634,20 @@
         <v>62</v>
       </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="50" t="s">
         <v>78</v>
       </c>
       <c r="J11" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="42" t="s">
         <v>77</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40" t="s">
         <v>75</v>
       </c>
@@ -1667,12 +1661,12 @@
         <v>21</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="56"/>
+      <c r="W11" s="54"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1722,14 +1716,14 @@
         <v>21</v>
       </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="54"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="56"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1765,7 +1759,7 @@
       <c r="M13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="51">
         <v>10000</v>
       </c>
       <c r="O13" s="40" t="s">
@@ -1781,12 +1775,12 @@
         <v>31</v>
       </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="56"/>
+      <c r="W13" s="54"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1810,12 +1804,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="56"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1840,11 +1834,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="56"/>
+      <c r="W15" s="54"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1869,11 +1863,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="56"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1898,9 +1892,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="56"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="56"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1952,13 +1946,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="55" t="s">
+      <c r="U19" s="53" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -2133,13 +2127,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="55" t="s">
+      <c r="U25" s="53" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2915,9 +2909,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,10 +2920,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -2940,12 +2934,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,9 +2965,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2999,9 +2993,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,9 +3021,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,9 +3049,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,9 +3077,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3100,13 +3094,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3118,6 +3105,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3128,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3161,43 +3155,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -3242,100 +3236,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3360,14 +3354,14 @@
       <c r="H6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="51"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>119</v>
       </c>
@@ -3381,14 +3375,14 @@
         <v>30</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3401,23 +3395,23 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3432,21 +3426,21 @@
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="43"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3470,12 +3464,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3499,12 +3493,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3517,23 +3511,23 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3557,14 +3551,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3588,12 +3582,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3617,12 +3611,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3647,11 +3641,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -3676,11 +3670,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3705,9 +3699,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3759,13 +3753,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -3940,13 +3934,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -4722,9 +4716,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,10 +4727,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -4747,12 +4741,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4778,9 +4772,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4806,9 +4800,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4834,9 +4828,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,9 +4856,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4890,9 +4884,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,6 +4901,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4918,13 +4919,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4935,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M10"/>
+    <sheetView showZeros="0" topLeftCell="N4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4968,43 +4962,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5049,100 +5043,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5165,13 +5159,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="52" t="s">
         <v>93</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -5180,7 +5174,7 @@
       <c r="M6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>75</v>
       </c>
@@ -5196,14 +5190,14 @@
       <c r="S6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5226,13 +5220,13 @@
         <v>63</v>
       </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>94</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="52" t="s">
         <v>93</v>
       </c>
       <c r="L7" s="40" t="s">
@@ -5241,7 +5235,7 @@
       <c r="M7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>75</v>
       </c>
@@ -5257,12 +5251,12 @@
       <c r="S7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5291,14 +5285,14 @@
       <c r="J8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>99</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="40" t="s">
         <v>119</v>
       </c>
@@ -5312,12 +5306,12 @@
         <v>21</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5355,7 +5349,7 @@
       <c r="M9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N9" s="42"/>
+      <c r="N9" s="41"/>
       <c r="O9" s="40" t="s">
         <v>75</v>
       </c>
@@ -5371,12 +5365,12 @@
       <c r="S9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5414,7 +5408,7 @@
       <c r="M10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="40" t="s">
         <v>75</v>
       </c>
@@ -5430,12 +5424,12 @@
       <c r="S10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5448,23 +5442,23 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5488,14 +5482,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5519,12 +5513,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5548,12 +5542,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -5578,11 +5572,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -5607,11 +5601,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -5636,9 +5630,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -5690,13 +5684,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -5871,13 +5865,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -6653,9 +6647,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,10 +6658,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -6678,12 +6672,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6709,9 +6703,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6737,9 +6731,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6765,9 +6759,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6793,9 +6787,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6821,9 +6815,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,6 +6832,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6849,13 +6850,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6866,8 +6860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6899,43 +6893,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -6980,100 +6974,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7096,13 +7090,13 @@
         <v>63</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K6" s="50" t="s">
         <v>115</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -7111,7 +7105,7 @@
       <c r="M6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="41">
         <v>63000</v>
       </c>
       <c r="O6" s="40" t="s">
@@ -7127,14 +7121,14 @@
         <v>89</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -7147,23 +7141,23 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -7178,21 +7172,21 @@
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="43"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -7216,12 +7210,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -7245,12 +7239,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -7263,23 +7257,23 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -7303,14 +7297,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -7334,12 +7328,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -7363,12 +7357,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -7393,11 +7387,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -7422,11 +7416,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -7451,9 +7445,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -7505,13 +7499,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -7686,13 +7680,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -8468,9 +8462,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8479,10 +8473,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -8493,12 +8487,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8524,9 +8518,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8552,9 +8546,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8580,9 +8574,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8608,9 +8602,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8636,9 +8630,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8653,6 +8647,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8664,13 +8665,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8681,8 +8675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8714,43 +8708,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -8795,100 +8789,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -8913,14 +8907,14 @@
       <c r="H6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="51"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="40"/>
       <c r="M6" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>119</v>
       </c>
@@ -8934,14 +8928,14 @@
         <v>30</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -8954,23 +8948,23 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40"/>
       <c r="P7" s="40"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -8985,21 +8979,21 @@
       <c r="H8" s="38"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="43"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="40"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -9023,12 +9017,12 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -9052,12 +9046,12 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -9070,23 +9064,23 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -9110,14 +9104,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -9141,12 +9135,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -9170,12 +9164,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -9200,11 +9194,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -9229,11 +9223,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -9258,9 +9252,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -9312,13 +9306,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -9493,13 +9487,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -10275,9 +10269,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10286,10 +10280,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -10300,12 +10294,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10331,9 +10325,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10359,9 +10353,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10387,9 +10381,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10415,9 +10409,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10443,9 +10437,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10460,6 +10454,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10471,13 +10472,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10488,8 +10482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10521,43 +10515,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -10602,100 +10596,100 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10722,13 +10716,13 @@
       <c r="H6" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="52" t="s">
         <v>105</v>
       </c>
       <c r="L6" s="40" t="s">
@@ -10737,7 +10731,7 @@
       <c r="M6" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="42"/>
+      <c r="N6" s="41"/>
       <c r="O6" s="40" t="s">
         <v>75</v>
       </c>
@@ -10751,14 +10745,14 @@
         <v>89</v>
       </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -10789,14 +10783,14 @@
       <c r="J7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="54"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="40" t="s">
         <v>103</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="42"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="40" t="s">
         <v>75</v>
       </c>
@@ -10810,12 +10804,12 @@
         <v>23</v>
       </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="55"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -10844,14 +10838,14 @@
       <c r="J8" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="42" t="s">
         <v>103</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="N8" s="52"/>
+      <c r="N8" s="51"/>
       <c r="O8" s="40" t="s">
         <v>75</v>
       </c>
@@ -10865,12 +10859,12 @@
         <v>31</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -10885,7 +10879,7 @@
       <c r="D9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="57" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="38"/>
@@ -10906,7 +10900,7 @@
       <c r="M9" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="N9" s="52"/>
+      <c r="N9" s="51"/>
       <c r="O9" s="40" t="s">
         <v>119</v>
       </c>
@@ -10920,12 +10914,12 @@
         <v>21</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="55"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -10940,7 +10934,7 @@
       <c r="D10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="57" t="s">
         <v>72</v>
       </c>
       <c r="F10" s="38"/>
@@ -10954,14 +10948,14 @@
       <c r="J10" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>105</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="N10" s="52"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="40" t="s">
         <v>119</v>
       </c>
@@ -10975,12 +10969,12 @@
         <v>21</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -10993,23 +10987,23 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="40"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="55"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -11033,14 +11027,14 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -11064,12 +11058,12 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="55"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -11093,12 +11087,12 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -11123,11 +11117,11 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="55"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -11152,11 +11146,11 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -11181,9 +11175,9 @@
       <c r="R17" s="38"/>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="55"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -11235,13 +11229,13 @@
       <c r="R19" s="10"/>
       <c r="S19" s="4"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="56" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -11416,13 +11410,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="56" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -12198,9 +12192,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12209,10 +12203,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -12223,12 +12217,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12254,9 +12248,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12282,9 +12276,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12310,9 +12304,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12338,9 +12332,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12366,9 +12360,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12383,6 +12377,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12394,13 +12395,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12411,8 +12405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12444,43 +12438,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="48"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -12525,473 +12519,825 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="63" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="60" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="60" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="48"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="45" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="62"/>
+      <c r="K5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="49"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="48"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183033829271</v>
+      </c>
       <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="I6" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="68" t="s">
+      <c r="T6" s="43"/>
+      <c r="U6" s="58" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="W6" s="43"/>
     </row>
     <row r="7" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C7" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="39">
+        <v>868183038092156</v>
+      </c>
       <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="38"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="53"/>
+      <c r="I7" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="L7" s="40"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="38"/>
+      <c r="M7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="69"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="59"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C8" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="39">
+        <v>860157040206127</v>
+      </c>
       <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="G8" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>86</v>
+      </c>
       <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="38"/>
+      <c r="M8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="51"/>
+      <c r="O8" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="69"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="59"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C9" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="39">
+        <v>868183037784407</v>
+      </c>
       <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="G9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>74</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="38"/>
+      <c r="O9" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="69"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="59"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="W9" s="43"/>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="39">
+        <v>868183038598848</v>
+      </c>
       <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="G10" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="38"/>
+      <c r="O10" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="69"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="59"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="W10" s="43"/>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C11" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39">
+        <v>868183037807547</v>
+      </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="G11" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="38"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="43"/>
+      <c r="I11" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>77</v>
+      </c>
       <c r="L11" s="40"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="38"/>
+      <c r="M11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="41"/>
+      <c r="O11" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="69"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="59"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="44"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C12" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="39">
+        <v>868183038502170</v>
+      </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="G12" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="M12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="38"/>
+      <c r="O12" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="68" t="s">
+      <c r="T12" s="43"/>
+      <c r="U12" s="58" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="W12" s="43"/>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C13" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39">
+        <v>868183034694872</v>
+      </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="G13" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="13"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L13" s="40"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="10"/>
+      <c r="M13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="51">
+        <v>10000</v>
+      </c>
+      <c r="O13" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="69"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="59"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C14" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="39">
+        <v>868183034625504</v>
+      </c>
       <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="50"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="38"/>
+      <c r="M14" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="69"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="59"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="W14" s="43"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C15" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="39">
+        <v>864811037290678</v>
+      </c>
       <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="4"/>
+      <c r="G15" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T15" s="14"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="59"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="44"/>
+      <c r="W15" s="43"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="B16" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C16" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="39">
+        <v>866050031761370</v>
+      </c>
       <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="4"/>
+      <c r="G16" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="38"/>
+      <c r="I16" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T16" s="14"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="60"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="W16" s="43"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
+      <c r="B17" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C17" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="39">
+        <v>866192037814439</v>
+      </c>
       <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="38"/>
+      <c r="G17" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="38"/>
+      <c r="I17" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="51"/>
+      <c r="O17" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="44"/>
+      <c r="U17" s="43"/>
       <c r="V17" s="15"/>
-      <c r="W17" s="44"/>
+      <c r="W17" s="43"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C18" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="39">
+        <v>864811037199572</v>
+      </c>
       <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="4"/>
+      <c r="G18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="41"/>
+      <c r="O18" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="16"/>
@@ -13001,54 +13347,114 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
+      <c r="B19" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C19" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="39">
+        <v>866192037801329</v>
+      </c>
       <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="4"/>
+      <c r="G19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="41"/>
+      <c r="O19" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="T19" s="14"/>
-      <c r="U19" s="45" t="s">
+      <c r="U19" s="44" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W19" s="50"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C20" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="39">
+        <v>863586032919551</v>
+      </c>
       <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="10"/>
+      <c r="G20" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="N20" s="41">
+        <v>63000</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S20" s="4"/>
       <c r="T20" s="14"/>
       <c r="U20" s="10" t="s">
@@ -13056,7 +13462,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -13064,23 +13470,45 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C21" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="39">
+        <v>867330026972367</v>
+      </c>
       <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="G21" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="50"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="10"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="41"/>
+      <c r="O21" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P21" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="S21" s="4"/>
       <c r="T21" s="14"/>
       <c r="U21" s="10" t="s">
@@ -13088,7 +13516,7 @@
       </c>
       <c r="V21" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W21" s="14"/>
     </row>
@@ -13096,23 +13524,55 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="10"/>
+      <c r="B22" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C22" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="39">
+        <v>867330022305828</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" s="41"/>
+      <c r="O22" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>89</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="14"/>
       <c r="U22" s="10" t="s">
@@ -13120,7 +13580,7 @@
       </c>
       <c r="V22" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W22" s="14"/>
     </row>
@@ -13128,23 +13588,51 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C23" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="39">
+        <v>865904028279450</v>
+      </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="10"/>
+      <c r="G23" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N23" s="41"/>
+      <c r="O23" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>23</v>
+      </c>
       <c r="S23" s="4"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
@@ -13155,23 +13643,49 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
+      <c r="B24" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C24" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="39">
+        <v>862118020684202</v>
+      </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="10"/>
+      <c r="G24" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="51"/>
+      <c r="O24" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>31</v>
+      </c>
       <c r="S24" s="4"/>
       <c r="T24" s="14"/>
       <c r="U24" s="14"/>
@@ -13182,54 +13696,106 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C25" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>71</v>
+      </c>
       <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="10"/>
+      <c r="G25" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="51"/>
+      <c r="O25" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S25" s="4"/>
       <c r="T25" s="14"/>
-      <c r="U25" s="45" t="s">
+      <c r="U25" s="44" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="W25" s="50"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="B26" s="37">
+        <v>44337</v>
+      </c>
+      <c r="C26" s="37">
+        <v>44343</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>72</v>
+      </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="10"/>
+      <c r="G26" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="51"/>
+      <c r="O26" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="38" t="s">
+        <v>21</v>
+      </c>
       <c r="S26" s="4"/>
       <c r="T26" s="14"/>
       <c r="U26" s="4" t="s">
@@ -13269,7 +13835,7 @@
       </c>
       <c r="V27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="14"/>
     </row>
@@ -13301,7 +13867,7 @@
       </c>
       <c r="V28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W28" s="14"/>
     </row>
@@ -13333,7 +13899,7 @@
       </c>
       <c r="V29" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W29" s="14"/>
     </row>
@@ -13397,7 +13963,7 @@
       </c>
       <c r="V31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W31" s="14"/>
     </row>
@@ -13429,7 +13995,7 @@
       </c>
       <c r="V32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="14"/>
     </row>
@@ -13525,7 +14091,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -13557,7 +14123,7 @@
       </c>
       <c r="V36" s="10">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="14"/>
     </row>
@@ -13589,7 +14155,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -13707,7 +14273,7 @@
       </c>
       <c r="V41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W41" s="14"/>
     </row>
@@ -13942,7 +14508,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="35">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="10" t="s">
         <v>57</v>
@@ -13983,9 +14549,9 @@
       <c r="R49" s="10"/>
       <c r="S49" s="4"/>
       <c r="T49" s="35"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
       <c r="X49" s="33"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13994,10 +14560,10 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="45"/>
       <c r="E50" s="31"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -14008,12 +14574,12 @@
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="29"/>
-      <c r="R50" s="46"/>
+      <c r="R50" s="45"/>
       <c r="S50" s="29"/>
       <c r="T50" s="35"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
       <c r="X50" s="33"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14039,9 +14605,9 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="35"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
       <c r="X51" s="33"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14067,9 +14633,9 @@
       <c r="R52" s="33"/>
       <c r="S52" s="33"/>
       <c r="T52" s="35"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
       <c r="X52" s="33"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14095,9 +14661,9 @@
       <c r="R53" s="33"/>
       <c r="S53" s="33"/>
       <c r="T53" s="35"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
       <c r="X53" s="33"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14123,9 +14689,9 @@
       <c r="R54" s="33"/>
       <c r="S54" s="33"/>
       <c r="T54" s="35"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
       <c r="X54" s="33"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14151,9 +14717,9 @@
       <c r="R55" s="33"/>
       <c r="S55" s="33"/>
       <c r="T55" s="36"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
       <c r="X55" s="33"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14168,6 +14734,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14179,13 +14752,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
